--- a/backend/facilities.xlsx
+++ b/backend/facilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlos/MyCampus/backend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\新建文件夹\MyCampus\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED5525E-5C5A-9242-80A1-E6D9FF481236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CED1245-7B4B-440A-8613-503252536AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="201">
   <si>
     <t>Subway</t>
   </si>
@@ -247,9 +247,6 @@
     <t>8:00am to 8:00pm (daily)</t>
   </si>
   <si>
-    <t>Shop</t>
-  </si>
-  <si>
     <t>Convenient store: 7-ELEVEN</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
   </si>
   <si>
     <t>1/F, Central Podium Level outside Chi Wah Learning Commons</t>
-  </si>
-  <si>
-    <t>Water station</t>
   </si>
   <si>
     <t>Chi Wah Learning Commons</t>
@@ -539,13 +533,118 @@
   <si>
     <t>Description</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Station 1</t>
+  </si>
+  <si>
+    <t>Water Station 2</t>
+  </si>
+  <si>
+    <t>Water Station 3</t>
+  </si>
+  <si>
+    <t>Water Station 4</t>
+  </si>
+  <si>
+    <t>Water Station 7</t>
+  </si>
+  <si>
+    <t>Water Station 5</t>
+  </si>
+  <si>
+    <t>Water Station 6</t>
+  </si>
+  <si>
+    <t>Water Station 8</t>
+  </si>
+  <si>
+    <t>Water Station 9</t>
+  </si>
+  <si>
+    <t>Water Station 10</t>
+  </si>
+  <si>
+    <t>Water Station 11</t>
+  </si>
+  <si>
+    <t>Water Station 12</t>
+  </si>
+  <si>
+    <t>Water Station 13</t>
+  </si>
+  <si>
+    <t>Water Station 14</t>
+  </si>
+  <si>
+    <t>Water Station 15</t>
+  </si>
+  <si>
+    <t>Water Station 16</t>
+  </si>
+  <si>
+    <t>Water Station 17</t>
+  </si>
+  <si>
+    <t>Water Station 18</t>
+  </si>
+  <si>
+    <t>Water Station 19</t>
+  </si>
+  <si>
+    <t>Water Station 20</t>
+  </si>
+  <si>
+    <t>Water Station 21</t>
+  </si>
+  <si>
+    <t>Water Station 22</t>
+  </si>
+  <si>
+    <t>Water Station 23</t>
+  </si>
+  <si>
+    <t>Water Station 24</t>
+  </si>
+  <si>
+    <t>Water Station 25</t>
+  </si>
+  <si>
+    <t>Water Station 26</t>
+  </si>
+  <si>
+    <t>Water Station 27</t>
+  </si>
+  <si>
+    <t>Water Station 28</t>
+  </si>
+  <si>
+    <t>Water Station 29</t>
+  </si>
+  <si>
+    <t>Water Station 30</t>
+  </si>
+  <si>
+    <t>Water Station 31</t>
+  </si>
+  <si>
+    <t>Water Station 32</t>
+  </si>
+  <si>
+    <t>Water Station 33</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Water Station</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -865,44 +964,44 @@
   </sheetPr>
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="40" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="63.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="59.5" style="4" customWidth="1"/>
-    <col min="6" max="8" width="12.6640625" style="4"/>
+    <col min="2" max="2" width="28.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="59.42578125" style="4" customWidth="1"/>
+    <col min="6" max="8" width="12.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -922,7 +1021,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -933,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -944,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -968,7 +1067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -992,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1003,7 +1102,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>20</v>
@@ -1016,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1027,7 +1126,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
@@ -1038,7 +1137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1049,7 +1148,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>29</v>
@@ -1060,7 +1159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1082,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1106,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1117,7 +1216,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>42</v>
@@ -1128,7 +1227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1150,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1172,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
@@ -1183,7 +1282,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>51</v>
@@ -1196,7 +1295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1218,7 +1317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -1240,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -1257,7 +1356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
@@ -1274,7 +1373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
@@ -1291,7 +1390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>70</v>
       </c>
@@ -1308,7 +1407,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -1320,406 +1419,505 @@
         <v>74</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="C24" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="H24" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="H27" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="H32" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="B33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="H35" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="B37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="B38" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="B39" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="B41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="B44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="2" t="s">
+      <c r="H45" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="2" t="s">
+      <c r="H46" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="12.75">
+      <c r="A47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H46" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B47" s="3" t="s">
+      <c r="H47" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="12.75">
+      <c r="A48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H47" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
+      <c r="H48" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="12.75">
+      <c r="A49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="H49" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="12.75">
+      <c r="A50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B50" s="2" t="s">
+      <c r="H50" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="12.75">
+      <c r="A51" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B51" s="3" t="s">
+      <c r="H51" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="12.75">
+      <c r="A52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="H52" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="12.75">
+      <c r="A53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B52" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H52" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B53" s="3" t="s">
+      <c r="H53" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="12.75">
+      <c r="A54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="H54" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="12.75">
+      <c r="A55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H53" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H54" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="B55" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="H55" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="12.75">
       <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
@@ -1729,221 +1927,221 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="F56" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="12.75">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="F57" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H57" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="12.75">
+      <c r="A58" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="B58" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="F58" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="12.75">
       <c r="A59" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="12.75">
       <c r="A60" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="12.75">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="12.75">
       <c r="A62" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="F62" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="12.75">
       <c r="A63" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="12.75">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="12.75">
       <c r="A65" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="12.75">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="12.75">
       <c r="A67" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="12.75">
       <c r="A68" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="12.75">
       <c r="A69" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="12.75">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -1953,45 +2151,45 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="12.75">
       <c r="A71" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="12.75">
       <c r="A72" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="12.75">
       <c r="D73" s="2"/>
       <c r="F73" s="2"/>
     </row>

--- a/backend/facilities.xlsx
+++ b/backend/facilities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\新建文件夹\MyCampus\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\p\MyCampus\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CED1245-7B4B-440A-8613-503252536AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7574BA5-C300-4829-A7BC-0928692CDB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="219">
   <si>
     <t>Subway</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Near Runme Shaw Bldg</t>
   </si>
   <si>
-    <t>Monday to Friday: 8:00-20:30, Saturday to Sunday: 9:00-19:00</t>
-  </si>
-  <si>
     <t>Canteen</t>
   </si>
   <si>
@@ -46,15 +43,6 @@
     <t xml:space="preserve">4/F Chong Yuet Ming Amenities Centre </t>
   </si>
   <si>
-    <t>Beef with Kimchi and Cheese on Sizzling Plate with Chill Sauce in Korean Style</t>
-  </si>
-  <si>
-    <t>Monday to Saturday: 7:30-21:30</t>
-  </si>
-  <si>
-    <t>美心食堂</t>
-  </si>
-  <si>
     <t>Fong Shu Chuen Amenities Centre Restaurant</t>
   </si>
   <si>
@@ -64,15 +52,6 @@
     <t>2/F Fong Shu Chuen Amenities Centre</t>
   </si>
   <si>
-    <t>Yunnan rice noodles</t>
-  </si>
-  <si>
-    <t>Monday to Friday: 7:30-20:00, Saturday: 7:30-14:00</t>
-  </si>
-  <si>
-    <t>太古食堂</t>
-  </si>
-  <si>
     <t xml:space="preserve">Union Restaurant </t>
   </si>
   <si>
@@ -82,12 +61,6 @@
     <t>4/F, Haking Wong Building, MRT Station Exit A2</t>
   </si>
   <si>
-    <t>Monday to Friday: 7:30-21:00, Saturday to Sunday：7:30-20:00</t>
-  </si>
-  <si>
-    <t>SU</t>
-  </si>
-  <si>
     <t>Starbucks Coffee</t>
   </si>
   <si>
@@ -97,9 +70,6 @@
     <t>4/F, Composite Building</t>
   </si>
   <si>
-    <t>Monday to Friday: 7:30-21:00, Saturday: 8:00-20:00, Sunday: 11:00-18:30</t>
-  </si>
-  <si>
     <t>Big Pizza</t>
   </si>
   <si>
@@ -109,36 +79,18 @@
     <t>Portion of Cover Podium，Main Campus The University of Pok Fu Lam</t>
   </si>
   <si>
-    <t>Monday to Saturday: 11:00-19:30</t>
-  </si>
-  <si>
     <t>cafe 330</t>
   </si>
   <si>
     <t>Near Subway</t>
   </si>
   <si>
-    <t>Midnight bagel</t>
-  </si>
-  <si>
-    <t>Monday to Friday: 8:00-20:30, Saturday: 10:00-18:00</t>
-  </si>
-  <si>
     <t>Gourmet Asia</t>
   </si>
   <si>
     <t>G/F Run Run Shaw Tower, CPD</t>
   </si>
   <si>
-    <t>Hainanese Chicken Rice</t>
-  </si>
-  <si>
-    <t>Monday to Saturday: 8:00-20:00</t>
-  </si>
-  <si>
-    <t>东南亚餐厅</t>
-  </si>
-  <si>
     <t>Alfafa</t>
   </si>
   <si>
@@ -148,66 +100,30 @@
     <t>G/F The Jockey Club Tower, CPD</t>
   </si>
   <si>
-    <t>Monday to Friday: 7:30-20:00, Saturday to Sunday: 8:00-18:00</t>
-  </si>
-  <si>
     <t>Oliver's Super Sandwich</t>
   </si>
   <si>
     <t>LG/F The Jockey Club Tower, CPD</t>
   </si>
   <si>
-    <t>Baked Potato With Smoked Duck Breast And Mushroom</t>
-  </si>
-  <si>
-    <t>Monday to Saturday: 8:00-19:00</t>
-  </si>
-  <si>
     <t>BIJAS Vegetarian</t>
   </si>
   <si>
-    <t>Noodles For Mixed Meal</t>
-  </si>
-  <si>
-    <t>Monday to Saturday: 11:30-21:00</t>
-  </si>
-  <si>
     <t>Hong Kong Daily</t>
   </si>
   <si>
-    <t>Monday to Saturday: 7:30-20:30</t>
-  </si>
-  <si>
-    <t>香江冰室</t>
-  </si>
-  <si>
     <t>Academic</t>
   </si>
   <si>
     <t>G/F Library Building</t>
   </si>
   <si>
-    <t>American Coffee</t>
-  </si>
-  <si>
-    <t>Monday to Friday: 9:30-12:30, 14:00-17:30</t>
-  </si>
-  <si>
     <t>U Deli</t>
   </si>
   <si>
-    <t>Pork Chop Casserole</t>
-  </si>
-  <si>
-    <t>Monday to Friday: 11:00-18:00</t>
-  </si>
-  <si>
     <t>Main Library</t>
   </si>
   <si>
-    <t>09:00am - 5:00pm 5:00pm - 8:00am (next day) (Overnight area)</t>
-  </si>
-  <si>
     <t>Library</t>
   </si>
   <si>
@@ -220,51 +136,33 @@
     <t>1-2/F Cheng Yu Tung Tower</t>
   </si>
   <si>
-    <t>9:00am-5:00pm</t>
-  </si>
-  <si>
     <t>Music Library</t>
   </si>
   <si>
     <t>11/F Run Run Shaw Tower</t>
   </si>
   <si>
-    <t>08:00am- 6:00am (next day)</t>
-  </si>
-  <si>
     <t>Tin Ka Ping Education Library</t>
   </si>
   <si>
     <t>Level 3, Library Building</t>
   </si>
   <si>
-    <t>9:00am- 5:00pm</t>
-  </si>
-  <si>
     <t>Centennial Campus Supermarket</t>
   </si>
   <si>
-    <t>8:00am to 8:00pm (daily)</t>
-  </si>
-  <si>
     <t>Convenient store: 7-ELEVEN</t>
   </si>
   <si>
     <t>R.C.Lee Hall</t>
   </si>
   <si>
-    <t>daily</t>
-  </si>
-  <si>
     <t>PARKnSHOP</t>
   </si>
   <si>
     <t>2/F, Chong Yuet Ming Amenities Centre</t>
   </si>
   <si>
-    <t>Mondays to Fridays 9:00 am - 7:00 pm Saturdays 9:00 am - 5:00 pm</t>
-  </si>
-  <si>
     <t>1/F, Central Podium Level outside Chi Wah Learning Commons</t>
   </si>
   <si>
@@ -400,79 +298,10 @@
     <t>West Side, 1F, Main Building</t>
   </si>
   <si>
-    <t>鄭裕彤教學樓</t>
-  </si>
-  <si>
     <t>Classroom</t>
   </si>
   <si>
-    <t>周亦卿樓</t>
-  </si>
-  <si>
-    <t>Simon K. Y. Lee Hall</t>
-  </si>
-  <si>
-    <t>李國賢樓</t>
-  </si>
-  <si>
-    <t>邵仁枚樓</t>
-  </si>
-  <si>
-    <t>Wong Chuang Lai Wah Building</t>
-  </si>
-  <si>
-    <t>黃莊麗華樓</t>
-  </si>
-  <si>
-    <t>莊月明化學樓</t>
-  </si>
-  <si>
-    <t>Tang Chi Ngong Building</t>
-  </si>
-  <si>
-    <t>鄧志昂樓</t>
-  </si>
-  <si>
-    <t>莊月明物理大樓</t>
-  </si>
-  <si>
-    <t>梁銶琚樓</t>
-  </si>
-  <si>
     <t>Knowles Building</t>
-  </si>
-  <si>
-    <t>鈕魯詩樓</t>
-  </si>
-  <si>
-    <t>明華綜合大樓</t>
-  </si>
-  <si>
-    <t>Wong Chue Ming Building</t>
-  </si>
-  <si>
-    <t>黃子明樓</t>
-  </si>
-  <si>
-    <t>黃麗松講堂</t>
-  </si>
-  <si>
-    <t>The Jockey Club Tower</t>
-  </si>
-  <si>
-    <t>賽馬會教學樓</t>
-  </si>
-  <si>
-    <t>邵逸夫樓</t>
-  </si>
-  <si>
-    <t>本部大樓</t>
-  </si>
-  <si>
-    <t>Hung Hing Ying Building</t>
-  </si>
-  <si>
-    <t>孔慶熒樓</t>
   </si>
   <si>
     <t>Building</t>
@@ -491,160 +320,376 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Abbreviation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Tuna, Roast Beef, Chicken Teriyaki</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spicy Chicken Pot, Japanese Ramen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pure Matcha, American Coffee</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strawberry Chocolate Pie, Marshmallow Pizza</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chicken Pasta With Black Pepper, Chicken Leg Pasta With Mushroom Sauce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A Meal of Ecstasy, Curry Pork Chop With Rice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChineseName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Classroom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Water Station 1</t>
-  </si>
-  <si>
-    <t>Water Station 2</t>
-  </si>
-  <si>
-    <t>Water Station 3</t>
-  </si>
-  <si>
-    <t>Water Station 4</t>
-  </si>
-  <si>
-    <t>Water Station 7</t>
-  </si>
-  <si>
-    <t>Water Station 5</t>
-  </si>
-  <si>
-    <t>Water Station 6</t>
-  </si>
-  <si>
-    <t>Water Station 8</t>
-  </si>
-  <si>
-    <t>Water Station 9</t>
-  </si>
-  <si>
-    <t>Water Station 10</t>
-  </si>
-  <si>
-    <t>Water Station 11</t>
-  </si>
-  <si>
-    <t>Water Station 12</t>
-  </si>
-  <si>
-    <t>Water Station 13</t>
-  </si>
-  <si>
-    <t>Water Station 14</t>
-  </si>
-  <si>
-    <t>Water Station 15</t>
-  </si>
-  <si>
-    <t>Water Station 16</t>
-  </si>
-  <si>
-    <t>Water Station 17</t>
-  </si>
-  <si>
-    <t>Water Station 18</t>
-  </si>
-  <si>
-    <t>Water Station 19</t>
-  </si>
-  <si>
-    <t>Water Station 20</t>
-  </si>
-  <si>
-    <t>Water Station 21</t>
-  </si>
-  <si>
-    <t>Water Station 22</t>
-  </si>
-  <si>
-    <t>Water Station 23</t>
-  </si>
-  <si>
-    <t>Water Station 24</t>
-  </si>
-  <si>
-    <t>Water Station 25</t>
-  </si>
-  <si>
-    <t>Water Station 26</t>
-  </si>
-  <si>
-    <t>Water Station 27</t>
-  </si>
-  <si>
-    <t>Water Station 28</t>
-  </si>
-  <si>
-    <t>Water Station 29</t>
-  </si>
-  <si>
-    <t>Water Station 30</t>
-  </si>
-  <si>
-    <t>Water Station 31</t>
-  </si>
-  <si>
-    <t>Water Station 32</t>
-  </si>
-  <si>
-    <t>Water Station 33</t>
-  </si>
-  <si>
     <t>Retail</t>
   </si>
   <si>
     <t>Water Station</t>
+  </si>
+  <si>
+    <t>CPD-LG.07</t>
+  </si>
+  <si>
+    <t>CPD-LG.08</t>
+  </si>
+  <si>
+    <t>CPD-G.03</t>
+  </si>
+  <si>
+    <t>CPD-1.21</t>
+  </si>
+  <si>
+    <t>CPD-2.48</t>
+  </si>
+  <si>
+    <t>Chong Yuet Ming Cultural Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LG1, Chong Yuet Ming Physics Building </t>
+  </si>
+  <si>
+    <t>5/F, Chong Yuet Ming Cultural Center</t>
+  </si>
+  <si>
+    <t>3/F Central Podium Levels (Jokey Club Tower)</t>
+  </si>
+  <si>
+    <t>CPD-3.25</t>
+  </si>
+  <si>
+    <t>2/F Central Podium Levels (Jokey Club Tower)</t>
+  </si>
+  <si>
+    <t>CPD-2.41</t>
+  </si>
+  <si>
+    <t>1/F Central Podium Levels (Jokey Club Tower)</t>
+  </si>
+  <si>
+    <t>G/F Central Podium Levels (Cheng Yu Tong Tower)</t>
+  </si>
+  <si>
+    <t>Lower Ground, Central Podium Levels</t>
+  </si>
+  <si>
+    <t>2/F, KK Leung Building</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/kk201/</t>
+  </si>
+  <si>
+    <t>KK-201</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cypp2/</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cycp1/</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cypp3/</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cypp4/</t>
+  </si>
+  <si>
+    <t>1/F Knowles Building</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/kb132/</t>
+  </si>
+  <si>
+    <t>CB-A</t>
+  </si>
+  <si>
+    <t>CB-C</t>
+  </si>
+  <si>
+    <t>CYCC-501</t>
+  </si>
+  <si>
+    <t>CYP-P2</t>
+  </si>
+  <si>
+    <t>CYP-P3</t>
+  </si>
+  <si>
+    <t>CYP-P4</t>
+  </si>
+  <si>
+    <t>KB-132</t>
+  </si>
+  <si>
+    <t>CYC-P1</t>
+  </si>
+  <si>
+    <t>1/F, Main Building</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/mb100/</t>
+  </si>
+  <si>
+    <t>MB-100</t>
+  </si>
+  <si>
+    <t>MB-167</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/mb167/</t>
+  </si>
+  <si>
+    <t>WLGH</t>
+  </si>
+  <si>
+    <t>Graduate House</t>
+  </si>
+  <si>
+    <t>P4, Graduate House</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/wlgh/</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cycc501/</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cbc/</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cba/</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cpd-3-25/</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cpd-241/</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cpd-2-48/</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cpd-g-03/</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cpd-lg-08/</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cpd-lg-07/</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/teaching-space/cpd-1-21/</t>
+  </si>
+  <si>
+    <t>Water Station 1/F</t>
+  </si>
+  <si>
+    <t>Water Station 2/F</t>
+  </si>
+  <si>
+    <t>Water Station 2A/F</t>
+  </si>
+  <si>
+    <t>Water Station 3/F</t>
+  </si>
+  <si>
+    <t>Water Station 4/F</t>
+  </si>
+  <si>
+    <t>Water Station 5/F</t>
+  </si>
+  <si>
+    <t>Water Station 6/F</t>
+  </si>
+  <si>
+    <t>Water Station 7/F</t>
+  </si>
+  <si>
+    <t>Water Station LG1/F</t>
+  </si>
+  <si>
+    <t>Water Station LG/F</t>
+  </si>
+  <si>
+    <t>Water Station West Side 1/F</t>
+  </si>
+  <si>
+    <t>Water Station 1/F (Chi Wah)</t>
+  </si>
+  <si>
+    <t>2-3/F, Central Podium Levels</t>
+  </si>
+  <si>
+    <t>BW Printer (Chi Wah Commons)</t>
+  </si>
+  <si>
+    <t>Color Printer (Chi Wah Commons)</t>
+  </si>
+  <si>
+    <t>2-3/F, Central Podium Levels Chi Wah Commons</t>
+  </si>
+  <si>
+    <t>BW Printer (Main Library)</t>
+  </si>
+  <si>
+    <t>3/F, Library Building</t>
+  </si>
+  <si>
+    <t>Color Printer (Main Library)</t>
+  </si>
+  <si>
+    <t>Printing Center</t>
+  </si>
+  <si>
+    <t>G/F, Composite Building</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>image_link</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.d387a7e7db7caa152c0dd9e8b0821d1a?rik=OpPRV6C91qnD0Q&amp;riu=http%3a%2f%2f3.bp.blogspot.com%2f-s39dTcKJXfk%2fUZYjvdNEYXI%2fAAAAAAAABN4%2fumlr9Q40Aa4%2fs1600%2fIMG_1980.JPG&amp;ehk=CJk2u0b2ukKuP7oQc1ytaH8oor2VIZbslve3GFSJt28%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Mon-Fri: 7:30-21:00, Sat: 8:00-20:00, Sun: 11:00-18:30</t>
+  </si>
+  <si>
+    <t>Mon - Fri: 8:00-20:30, Sat &amp; Sun: 9:00-19:00</t>
+  </si>
+  <si>
+    <t>Mon - Sat: 7:30-21:30</t>
+  </si>
+  <si>
+    <t>Mon - Fri: 7:30-20:00, Sat: 7:30-14:00</t>
+  </si>
+  <si>
+    <t>Mon - Fri: 7:30-21:00, Sat &amp; Sun：7:30-20:00</t>
+  </si>
+  <si>
+    <t>Mon - Sat: 11:00-19:30</t>
+  </si>
+  <si>
+    <t>Mon - Fri: 9:00 - 20:00, Sat &amp; Sun: 10:00 - 17:00</t>
+  </si>
+  <si>
+    <t>Mon - Fri: 9:00 - 18:00</t>
+  </si>
+  <si>
+    <t>Mon - Fri: 9:00-19:00, Sat 9:00- 17:00</t>
+  </si>
+  <si>
+    <t>0:00 - 24:00</t>
+  </si>
+  <si>
+    <t>9:00 - 17:00</t>
+  </si>
+  <si>
+    <t>8:00 - 20:00</t>
+  </si>
+  <si>
+    <t>8:00 - 6:00 (next day)</t>
+  </si>
+  <si>
+    <t>9:00am - 17:00, Overnight Area: 17:00 - 8:00 (next day)</t>
+  </si>
+  <si>
+    <t>Mon - Fri: 11:00-18:00</t>
+  </si>
+  <si>
+    <t>Mon - Fri: 9:30-12:30, 14:00-17:30</t>
+  </si>
+  <si>
+    <t>Mon - Sat: 7:30-20:30</t>
+  </si>
+  <si>
+    <t>Mon - Sat: 11:30-21:00</t>
+  </si>
+  <si>
+    <t>Mon - Sat: 8:00-19:00</t>
+  </si>
+  <si>
+    <t>Mon - Fri: 7:30-20:00, Sat &amp; Sun: 8:00-18:00</t>
+  </si>
+  <si>
+    <t>Mon - Sat: 8:00-20:00</t>
+  </si>
+  <si>
+    <t>Mon - Fri: 8:00-20:30, Sat: 10:00-18:00</t>
+  </si>
+  <si>
+    <t>https://its.hku.hk/wp-content/uploads/MB110B.jpeg</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: Tuna, Roast Beef, Chicken Teriyaki</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: Beef with Kimchi and Cheese on Sizzling Plate with Chill Sauce in Korean Style</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: Yunnan rice noodles</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: Spicy Chicken Pot, Japanese Ramen</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: Pure Matcha, American Coffee</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: Strawberry Chocolate Pie, Marshmallow Pizza</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: Midnight bagel</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: Hainanese Chicken Rice</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: Chicken Pasta With Black Pepper, Chicken Leg Pasta With Mushroom Sauce</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: Baked Potato With Smoked Duck Breast And Mushroom</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: Noodles For Mixed Meal</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: A Meal of Ecstasy, Curry Pork Chop With Rice</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: American Coffee</t>
+  </si>
+  <si>
+    <t>Dishes Recommendation: Pork Chop Casserole</t>
+  </si>
+  <si>
+    <t>An open study zone for all students. Low volume discussions are allowed. You can also book for a private room to discuss with your peers.</t>
+  </si>
+  <si>
+    <t>An open study zone for all students. You should keep absolutely quiet. Discussion rooms are open for booking two days in advance.</t>
+  </si>
+  <si>
+    <t>Water Station G/F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -692,6 +737,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -722,10 +781,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,17 +796,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -962,46 +1027,47 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="40" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="59.42578125" style="4" customWidth="1"/>
-    <col min="6" max="8" width="12.7109375" style="4"/>
+    <col min="2" max="2" width="32.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1019,9 +1085,8 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1032,1169 +1097,2179 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="D4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H9" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H10" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H11" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H12" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H13" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H14" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H15" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>192</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>189</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>69</v>
+        <v>191</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>72</v>
+        <v>189</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>199</v>
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>190</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>43</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>200</v>
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>200</v>
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>165</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>200</v>
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>200</v>
+        <v>50</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>154</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>200</v>
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>27</v>
+        <v>154</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>200</v>
+        <v>53</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>154</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>200</v>
+        <v>54</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>200</v>
+        <v>55</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>18</v>
+        <v>155</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>200</v>
+        <v>56</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>200</v>
+        <v>57</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>156</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>200</v>
+        <v>59</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>18</v>
+        <v>157</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>200</v>
+        <v>60</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>200</v>
+        <v>61</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>200</v>
+        <v>63</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>200</v>
+        <v>64</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>200</v>
+        <v>65</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>200</v>
+        <v>67</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>200</v>
+        <v>68</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>161</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>200</v>
+        <v>69</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>200</v>
+        <v>70</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>200</v>
+        <v>71</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>200</v>
+        <v>72</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>200</v>
+        <v>74</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.75">
       <c r="A47" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>111</v>
+        <v>218</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>200</v>
+        <v>76</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75">
       <c r="A48" s="2" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>200</v>
+        <v>78</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.75">
       <c r="A49" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>218</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>200</v>
+        <v>80</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="12.75">
       <c r="A50" s="2" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>200</v>
+        <v>81</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="12.75">
       <c r="A51" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>118</v>
+        <v>218</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>200</v>
+        <v>83</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="12.75">
       <c r="A52" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>218</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>200</v>
+        <v>85</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="12.75">
       <c r="A53" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>121</v>
+        <v>163</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>200</v>
+        <v>86</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="12.75">
       <c r="A54" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>162</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>200</v>
+        <v>88</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>124</v>
+        <v>162</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>200</v>
+        <v>89</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="12.75">
       <c r="A56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="F56" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>127</v>
+        <v>164</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="12.75">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="F57" s="3" t="s">
-        <v>128</v>
+        <v>24</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="12.75">
       <c r="A58" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="F58" s="3" t="s">
-        <v>130</v>
+        <v>24</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="12.75">
-      <c r="A59" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>131</v>
+        <v>178</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="12.75">
       <c r="A60" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>133</v>
+        <v>178</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="12.75">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>134</v>
+        <v>178</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="12.75">
       <c r="A62" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="F62" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="12.75">
-      <c r="A63" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="A63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>137</v>
+        <v>178</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="12.75">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>138</v>
+        <v>178</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="12.75">
       <c r="A65" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>140</v>
+        <v>178</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="12.75">
       <c r="A66" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>141</v>
+        <v>178</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="12.75">
-      <c r="A67" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="A67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>143</v>
+        <v>178</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="12.75">
-      <c r="A68" s="3" t="s">
-        <v>118</v>
+      <c r="A68" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>144</v>
+        <v>178</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="12.75">
       <c r="A69" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>146</v>
+        <v>178</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="12.75">
       <c r="A70" s="2" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>147</v>
+        <v>178</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="12.75">
-      <c r="A71" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="A71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>148</v>
+        <v>178</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="12.75">
       <c r="A72" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>150</v>
+        <v>178</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="12.75">
-      <c r="D73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="A73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A76" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A77" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="G102" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G63" r:id="rId1" xr:uid="{7A86EA0A-A426-41CF-8E45-60DF8D55AA0F}"/>
+    <hyperlink ref="G62" r:id="rId2" xr:uid="{CE80453C-6015-47AA-9D44-8653C78027B1}"/>
+    <hyperlink ref="G61" r:id="rId3" xr:uid="{857C300C-F150-4F5F-8CE1-41096968439E}"/>
+    <hyperlink ref="G58" r:id="rId4" xr:uid="{64107CA7-A2D5-4EDD-8DF8-37C1FA04724F}"/>
+    <hyperlink ref="G57" r:id="rId5" xr:uid="{2E8EB6AA-57E9-4757-BCE2-D044C2CD5472}"/>
+    <hyperlink ref="G60" r:id="rId6" xr:uid="{7654F5E8-467C-46D9-8BCD-E2E764F95967}"/>
+    <hyperlink ref="F73" r:id="rId7" xr:uid="{A6AEA34D-FF14-4426-B46E-61D04AC6D06F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>